--- a/data/trans_dic/IP16B98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Habitat-trans_dic.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,2; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,86; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,51; 100,0</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,4; 100,0</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,08; 100,0</t>
+          <t>43,07; 100</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>85,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>96,21%</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,29; 100,0</t>
+          <t>42,2; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>59,86; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>62,51; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,44; 100,0</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,07; 100,0</t>
+          <t>62,4; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,47; 100,0</t>
+          <t>81,08; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>66,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>88,46%</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,31; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>48,99; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>52,49; 100,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>93,57%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>47,29; 100,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73,58; 100</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>69,43; 100</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>31,31; 100,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>37,44; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,99; 100,0</t>
+          <t>59,07; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,49; 100,0</t>
+          <t>64,47; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Habitat-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -799,17 +799,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,2; 100,0</t>
+          <t>42,34; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,86; 100,0</t>
+          <t>59,42; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,51; 100,0</t>
+          <t>58,66; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,4; 100,0</t>
+          <t>65,69; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,08; 100,0</t>
+          <t>81,6; 100,0</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,31; 100,0</t>
+          <t>42,58; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,99; 100,0</t>
+          <t>49,02; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,49; 100,0</t>
+          <t>56,17; 100,0</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,29; 100,0</t>
+          <t>49,77; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -974,17 +974,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,44; 100,0</t>
+          <t>41,09; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,07; 100,0</t>
+          <t>66,61; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,47; 100,0</t>
+          <t>64,63; 100,0</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,22; 100,0</t>
+          <t>75,8; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,44; 100,0</t>
+          <t>79,96; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,62; 100,0</t>
+          <t>77,97; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>88,2; 100,0</t>
+          <t>84,42; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>82,25; 98,26</t>
+          <t>82,74; 98,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,49; 98,77</t>
+          <t>87,63; 98,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Habitat-trans_dic.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,17 +799,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,34; 100,0</t>
+          <t>42,49; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,42; 100,0</t>
+          <t>60,67; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,66; 100,0</t>
+          <t>62,23; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,19 +819,19 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,69; 100,0</t>
+          <t>65,23; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,6; 100,0</t>
+          <t>81,24; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,58; 100,0</t>
+          <t>42,61; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,02; 100,0</t>
+          <t>49,52; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,17; 100,0</t>
+          <t>56,2; 100,0</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,77; 100,0</t>
+          <t>51,85; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -974,17 +974,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,09; 100,0</t>
+          <t>36,62; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,61; 100,0</t>
+          <t>58,37; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,63; 100,0</t>
+          <t>64,96; 100,0</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,8; 100,0</t>
+          <t>73,76; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,96; 100,0</t>
+          <t>79,88; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,97; 100,0</t>
+          <t>75,62; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>84,42; 100,0</t>
+          <t>84,35; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>82,74; 98,26</t>
+          <t>81,64; 98,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,63; 98,8</t>
+          <t>87,88; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>87,39; 100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>91,1%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>85,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,21%</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>62,51; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>42,2; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>59,86; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100</t>
+          <t>62,4; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>81,08; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>66,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>88,46%</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,49; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,67; 100,0</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,23; 100,0</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>31,31; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,23; 100,0</t>
+          <t>48,99; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,24; 100,0</t>
+          <t>52,49; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>93,57%</t>
         </is>
       </c>
     </row>
@@ -884,34 +884,34 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,61; 100,0</t>
+          <t>37,44; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>47,29; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,52; 100,0</t>
+          <t>59,07; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,2; 100,0</t>
+          <t>64,47; 100,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -959,124 +959,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 100,0</t>
+          <t>74,62; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>88,2; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>75,22; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,62; 100,0</t>
+          <t>80,44; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,37; 100,0</t>
+          <t>82,25; 98,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,96; 100,0</t>
+          <t>87,49; 98,77</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>92,24%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>93,41%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>92,8%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>97,45%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>92,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>95,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>73,76; 100,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>79,88; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>75,62; 100,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>84,35; 100,0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>81,64; 98,28</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>87,88; 100,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1086,7 +1006,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
